--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13250.63979602467</v>
+        <v>-15813.6601319293</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>137.0077888850465</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>324.7014311421356</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0.5186678423128228</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>1.101313334057909</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>58.969569614374</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,16 +823,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -868,22 +868,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>28.47064484784953</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>178.2485464409641</v>
+        <v>200.4938530470519</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.9742617288352</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>15.92742661275715</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>24.8769425583401</v>
+        <v>246.7527623463882</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>44.19502152616656</v>
+        <v>139.8980011584158</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>120.8326485140796</v>
       </c>
       <c r="G13" t="n">
-        <v>53.76947475493604</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>28.54004930889236</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>108.3764982651487</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>69.18922512558757</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>72.23766645968995</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>57.65182679923952</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>172.026033500079</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161913385</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>148.2350264383962</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E31" t="n">
-        <v>4.019807611472472</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>79.90816078628993</v>
+        <v>45.17596778975057</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3949,10 +3949,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1630.558032982098</v>
+        <v>860.2091971025891</v>
       </c>
       <c r="C2" t="n">
-        <v>1630.558032982098</v>
+        <v>860.2091971025891</v>
       </c>
       <c r="D2" t="n">
-        <v>1272.292334375348</v>
+        <v>860.2091971025891</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>474.4209445043448</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>467.4754437551413</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.7706934794302</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.7706934794302</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4346,34 +4346,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.593687005981</v>
+        <v>2561.226890688986</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270161</v>
+        <v>2307.645829953166</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.94973892659</v>
+        <v>1976.582942609595</v>
       </c>
       <c r="W2" t="n">
-        <v>1768.94973892659</v>
+        <v>1623.814287339481</v>
       </c>
       <c r="X2" t="n">
-        <v>1768.94973892659</v>
+        <v>1250.348529078401</v>
       </c>
       <c r="Y2" t="n">
-        <v>1768.94973892659</v>
+        <v>860.2091971025891</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143502</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458221</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710447</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>476.1547555788524</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,7 +4507,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
@@ -4516,22 +4516,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>1308.475738630901</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>1308.475738630901</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y4" t="n">
-        <v>1087.683159487371</v>
+        <v>535.7199774115534</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1059.365742829029</v>
+        <v>1089.391082610343</v>
       </c>
       <c r="C5" t="n">
-        <v>690.403225888617</v>
+        <v>1089.391082610343</v>
       </c>
       <c r="D5" t="n">
-        <v>690.403225888617</v>
+        <v>731.1253840035929</v>
       </c>
       <c r="E5" t="n">
-        <v>304.6149732903728</v>
+        <v>731.1253840035929</v>
       </c>
       <c r="F5" t="n">
-        <v>297.6694725411693</v>
+        <v>320.1394792139853</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,55 +4562,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400156</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130042</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868962</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.96558289315</v>
+        <v>1089.391082610343</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143493</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>884.908532145821</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>664.1529317523638</v>
+        <v>622.6901078854036</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1158.783151063346</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W7" t="n">
-        <v>892.1424826503811</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="X7" t="n">
-        <v>664.1529317523638</v>
+        <v>843.4826870289337</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.1529317523638</v>
+        <v>622.6901078854036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.847660535551</v>
+        <v>1420.453969953914</v>
       </c>
       <c r="C8" t="n">
-        <v>1601.847660535551</v>
+        <v>1051.491453013502</v>
       </c>
       <c r="D8" t="n">
-        <v>1243.5819619288</v>
+        <v>693.225754406752</v>
       </c>
       <c r="E8" t="n">
-        <v>857.7937093305561</v>
+        <v>307.4375018085078</v>
       </c>
       <c r="F8" t="n">
-        <v>446.8078045409486</v>
+        <v>300.4920010593043</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796631</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.313418796631</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.313418796631</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X8" t="n">
-        <v>1601.847660535551</v>
+        <v>1810.593301929726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.847660535551</v>
+        <v>1420.453969953914</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>390.6912635333233</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="C10" t="n">
-        <v>346.0498276483066</v>
+        <v>496.992271614743</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.233965749941</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.549477544054</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W10" t="n">
-        <v>793.1323075070932</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="X10" t="n">
-        <v>793.1323075070932</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="Y10" t="n">
-        <v>572.339728363563</v>
+        <v>638.3033838959711</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>985.7836617409695</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C13" t="n">
-        <v>816.8474788130626</v>
+        <v>822.8075068028749</v>
       </c>
       <c r="D13" t="n">
-        <v>666.7308394007254</v>
+        <v>672.6908673905391</v>
       </c>
       <c r="E13" t="n">
-        <v>518.8177458183322</v>
+        <v>524.777773808146</v>
       </c>
       <c r="F13" t="n">
-        <v>371.9277983204219</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2160.315914855604</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1905.631426649717</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.214256612757</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.224705714739</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y13" t="n">
-        <v>1167.432126571209</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D16" t="n">
         <v>637.9025067654818</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2351.089047197418</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.487582220359</v>
+        <v>2270.446169463826</v>
       </c>
       <c r="U16" t="n">
-        <v>2131.487582220359</v>
+        <v>1981.370942808024</v>
       </c>
       <c r="V16" t="n">
-        <v>1876.803094014472</v>
+        <v>1726.686454602137</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="17">
@@ -5507,13 +5507,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5525,19 +5525,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452603</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718124</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.528408326419</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511905</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2377.074977392799</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2157.473512415741</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1868.398285759938</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1868.398285759938</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1578.981115722978</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1350.99156482496</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5835,16 +5835,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1023.721406539406</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C22" t="n">
-        <v>854.785223611499</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D22" t="n">
-        <v>704.6685841991632</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510511</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510511</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304624</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267663</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369646</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y22" t="n">
-        <v>1205.369871369646</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
@@ -5996,43 +5996,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797747</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,28 +6212,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6248,25 +6248,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6605733532801</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7243904253733</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2230.185029894889</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2010.58356491783</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1721.508338262028</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1721.508338262028</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1432.091168225067</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1204.10161732705</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3090381835199</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597624</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111701</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6886,16 +6886,16 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.240688199802</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.823518162841</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X34" t="n">
         <v>1501.108204237296</v>
@@ -6929,22 +6929,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,28 +7409,28 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7597,7 +7597,7 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
         <v>1746.193029533436</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,16 +7783,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,37 +7804,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
         <v>1746.193029533436</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>319.4183821282443</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780638</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
-        <v>319.4183821282434</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.77577474452037e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-4.11532691860978e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57.22893893012619</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.19124483015767</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>24.58839950885162</v>
       </c>
       <c r="G13" t="n">
-        <v>111.7546635373328</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856988</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.4862366927522</v>
+        <v>181.0262860016454</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>109.0289520621396</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856667</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>111.837060876057</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>74.19629618687922</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>168.0578285897976</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>37.12601365260412</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>9.000252501565598</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>32.79125956324839</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E31" t="n">
-        <v>142.4141550350967</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25126,19 +25126,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>145.8014946027472</v>
+        <v>180.5336875992866</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,10 +26074,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794695</v>
+        <v>298593.7657794696</v>
       </c>
       <c r="C2" t="n">
+        <v>328416.7079457134</v>
+      </c>
+      <c r="D2" t="n">
         <v>328416.7079457135</v>
-      </c>
-      <c r="D2" t="n">
-        <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
         <v>322858.6398760023</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="H2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="I2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="L2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="N2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91763.11654919837</v>
+        <v>91763.11654919856</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618637</v>
@@ -26430,34 +26430,34 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731948</v>
+        <v>8117.312426731914</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731962</v>
+        <v>8117.312426731952</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731949</v>
+        <v>8117.312426731956</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
+        <v>8117.312426731956</v>
+      </c>
+      <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="N4" t="n">
-        <v>8117.312426731995</v>
-      </c>
       <c r="O4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1000858.906785493</v>
+        <v>-1001045.300174032</v>
       </c>
       <c r="C6" t="n">
+        <v>101160.935244005</v>
+      </c>
+      <c r="D6" t="n">
         <v>101160.9352440051</v>
       </c>
-      <c r="D6" t="n">
-        <v>101160.935244005</v>
-      </c>
       <c r="E6" t="n">
-        <v>-293866.6439991825</v>
+        <v>-293901.3819246182</v>
       </c>
       <c r="F6" t="n">
-        <v>213618.7976253632</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="G6" t="n">
-        <v>213618.7976253632</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="H6" t="n">
-        <v>213618.7976253636</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="I6" t="n">
-        <v>213618.7976253633</v>
+        <v>213584.0596999275</v>
       </c>
       <c r="J6" t="n">
-        <v>46013.61981538082</v>
+        <v>45978.88188994494</v>
       </c>
       <c r="K6" t="n">
-        <v>213618.7976253635</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="L6" t="n">
-        <v>213618.7976253633</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="M6" t="n">
-        <v>81011.50389643664</v>
+        <v>80976.76597100105</v>
       </c>
       <c r="N6" t="n">
-        <v>213618.7976253633</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="O6" t="n">
-        <v>213618.7976253634</v>
+        <v>213584.0596999276</v>
       </c>
       <c r="P6" t="n">
-        <v>213618.7976253635</v>
+        <v>213584.0596999277</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,16 +26802,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,19 +26966,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245.7260527784341</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.5568716461758</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.8624105675633</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>258.0523534887415</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>233.2991563319899</v>
+        <v>211.0538497259021</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.54873660775581</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>209.78222877628</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>386.6707602146139</v>
+        <v>164.7949404265658</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>123.0517995724613</v>
+        <v>27.348819940212</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-2.053100445934254e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,25 +32078,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32552,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>514.8598010172136</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,13 +33020,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,13 +33257,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33415,10 +33415,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043726</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,25 +33971,25 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34211,10 +34211,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215496</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>617.0987427660945</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35015,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215487</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>617.0987427660937</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>82.88662398579325</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164529</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>376.3054212373395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066269</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36364,7 +36364,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902925</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36373,7 +36373,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
